--- a/ST3_2021-12_Oil.xlsx
+++ b/ST3_2021-12_Oil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Information Management\Info Sharing and Tracking\Product Services\Operations\Product Creation\ST3\ST3s_Report_Prep\All_Pages_Content_Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{39183B24-9D21-4A50-A218-FFE27B6C8985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{2343179B-ABB9-4E93-9D29-1BAE9CCC8E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="732" windowWidth="21372" windowHeight="11520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="252" yWindow="1128" windowWidth="21852" windowHeight="11184" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="21" r:id="rId1"/>
@@ -460,10 +460,10 @@
     <t>Nonupgraded</t>
   </si>
   <si>
+    <t xml:space="preserve"> Run Date:  12 April 2022</t>
+  </si>
+  <si>
     <t>2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Run Date:  27 January 2022</t>
   </si>
 </sst>
 </file>
@@ -3009,8 +3009,8 @@
   </sheetPr>
   <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R60" sqref="R60"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R75" sqref="R75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3050,7 +3050,7 @@
     </row>
     <row r="4" spans="2:22" s="4" customFormat="1" ht="22.5" customHeight="1">
       <c r="B4" s="73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="5"/>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="71" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:22" s="5" customFormat="1">
@@ -3126,44 +3126,44 @@
       </c>
       <c r="C7"/>
       <c r="D7" s="19">
-        <v>11191887.1</v>
+        <v>11191772</v>
       </c>
       <c r="E7" s="19">
-        <v>11471218.9</v>
+        <v>11471104.800000001</v>
       </c>
       <c r="F7" s="19">
-        <v>10909444.699999999</v>
+        <v>10909334.6</v>
       </c>
       <c r="G7" s="19">
-        <v>11671234.300000001</v>
+        <v>11671129.9</v>
       </c>
       <c r="H7" s="19">
-        <v>11856739.300000001</v>
+        <v>11856607.9</v>
       </c>
       <c r="I7" s="19">
-        <v>11772886.300000001</v>
+        <v>11772784</v>
       </c>
       <c r="J7" s="19">
-        <v>11705237.699999999</v>
+        <v>11705120.800000001</v>
       </c>
       <c r="K7" s="19">
-        <v>11964291.300000001</v>
+        <v>11964726.1</v>
       </c>
       <c r="L7" s="19">
-        <v>11917285.1</v>
+        <v>11917774.800000001</v>
       </c>
       <c r="M7" s="19">
-        <v>12182564.199999999</v>
+        <v>12183074.300000001</v>
       </c>
       <c r="N7" s="19">
-        <v>12816470.199999999</v>
+        <v>12816867.199999999</v>
       </c>
       <c r="O7" s="19">
-        <v>12683422.5</v>
+        <v>12684001.5</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11">
-        <v>11191887.1</v>
+        <v>11191772</v>
       </c>
       <c r="V7" s="62"/>
     </row>
@@ -3227,44 +3227,44 @@
         <v>25</v>
       </c>
       <c r="D11" s="62">
-        <v>1173328.5</v>
+        <v>1173066</v>
       </c>
       <c r="E11" s="62">
-        <v>1026043.5</v>
+        <v>1025914.4</v>
       </c>
       <c r="F11" s="62">
-        <v>1206010.6000000001</v>
+        <v>1205710.7</v>
       </c>
       <c r="G11" s="62">
-        <v>1184370.3</v>
+        <v>1184083.1000000001</v>
       </c>
       <c r="H11" s="62">
-        <v>1171442.3999999999</v>
+        <v>1171098</v>
       </c>
       <c r="I11" s="62">
-        <v>1099401.1000000001</v>
+        <v>1098864.7</v>
       </c>
       <c r="J11" s="62">
-        <v>1171536.3</v>
+        <v>1167392.3999999999</v>
       </c>
       <c r="K11" s="62">
-        <v>1230847.1000000001</v>
+        <v>1220209</v>
       </c>
       <c r="L11" s="62">
-        <v>1199735.8</v>
+        <v>1184023.8999999999</v>
       </c>
       <c r="M11" s="62">
-        <v>1322792.8</v>
+        <v>1299310.6000000001</v>
       </c>
       <c r="N11" s="62">
-        <v>1314922.6000000001</v>
+        <v>1280896.8</v>
       </c>
       <c r="O11" s="62">
-        <v>1352367.2</v>
+        <v>1309418.5</v>
       </c>
       <c r="P11" s="59"/>
       <c r="Q11" s="59">
-        <v>14452798.200000001</v>
+        <v>14319988.1</v>
       </c>
     </row>
     <row r="12" spans="2:22" s="5" customFormat="1">
@@ -3273,44 +3273,44 @@
       </c>
       <c r="C12"/>
       <c r="D12" s="19">
-        <v>365687.6</v>
+        <v>365800.1</v>
       </c>
       <c r="E12" s="19">
-        <v>318429.09999999998</v>
+        <v>318471.09999999998</v>
       </c>
       <c r="F12" s="19">
-        <v>378949</v>
+        <v>379151.2</v>
       </c>
       <c r="G12" s="19">
-        <v>378907</v>
+        <v>379106.7</v>
       </c>
       <c r="H12" s="19">
-        <v>386628.8</v>
+        <v>386913.6</v>
       </c>
       <c r="I12" s="19">
-        <v>369446.9</v>
+        <v>369808.1</v>
       </c>
       <c r="J12" s="19">
-        <v>384595.3</v>
+        <v>385650.2</v>
       </c>
       <c r="K12" s="19">
-        <v>394340.7</v>
+        <v>396301.6</v>
       </c>
       <c r="L12" s="19">
-        <v>374366.5</v>
+        <v>376495.1</v>
       </c>
       <c r="M12" s="19">
-        <v>378517.7</v>
+        <v>382813.4</v>
       </c>
       <c r="N12" s="19">
-        <v>364248.8</v>
+        <v>369729.3</v>
       </c>
       <c r="O12" s="19">
-        <v>365299.9</v>
+        <v>370570.8</v>
       </c>
       <c r="P12" s="11"/>
       <c r="Q12" s="11">
-        <v>4459417.3</v>
+        <v>4480811.2</v>
       </c>
     </row>
     <row r="13" spans="2:22" s="55" customFormat="1">
@@ -3331,32 +3331,32 @@
         <v>165733.29999999999</v>
       </c>
       <c r="H13" s="62">
-        <v>171221.8</v>
+        <v>171225.60000000001</v>
       </c>
       <c r="I13" s="62">
-        <v>160213.6</v>
+        <v>160324.1</v>
       </c>
       <c r="J13" s="62">
-        <v>164998.70000000001</v>
+        <v>167989.5</v>
       </c>
       <c r="K13" s="62">
-        <v>168682.9</v>
+        <v>176012.6</v>
       </c>
       <c r="L13" s="62">
-        <v>156277.1</v>
+        <v>164850.79999999999</v>
       </c>
       <c r="M13" s="62">
-        <v>162467.20000000001</v>
+        <v>170684.7</v>
       </c>
       <c r="N13" s="62">
-        <v>159069.20000000001</v>
+        <v>167127.20000000001</v>
       </c>
       <c r="O13" s="62">
-        <v>159440</v>
+        <v>166883.20000000001</v>
       </c>
       <c r="P13" s="59"/>
       <c r="Q13" s="59">
-        <v>1950517.6</v>
+        <v>1993244.8</v>
       </c>
     </row>
     <row r="14" spans="2:22" s="55" customFormat="1">
@@ -3365,44 +3365,44 @@
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="106">
-        <v>354921.4</v>
+        <v>355071.4</v>
       </c>
       <c r="E14" s="106">
-        <v>317071.3</v>
+        <v>317162.40000000002</v>
       </c>
       <c r="F14" s="106">
-        <v>362079.1</v>
+        <v>362177.6</v>
       </c>
       <c r="G14" s="105">
-        <v>368144.4</v>
+        <v>368231.9</v>
       </c>
       <c r="H14" s="105">
-        <v>382776</v>
+        <v>382835.7</v>
       </c>
       <c r="I14" s="105">
-        <v>373432.1</v>
+        <v>373496.1</v>
       </c>
       <c r="J14" s="105">
-        <v>392232.6</v>
+        <v>392330.8</v>
       </c>
       <c r="K14" s="105">
-        <v>395106.7</v>
+        <v>396454.2</v>
       </c>
       <c r="L14" s="105">
-        <v>377391.9</v>
+        <v>382330.9</v>
       </c>
       <c r="M14" s="105">
-        <v>390863.6</v>
+        <v>401705.5</v>
       </c>
       <c r="N14" s="105">
-        <v>372203.9</v>
+        <v>392793.7</v>
       </c>
       <c r="O14" s="105">
-        <v>374929.3</v>
+        <v>405067.5</v>
       </c>
       <c r="P14" s="106"/>
       <c r="Q14" s="106">
-        <v>4461152.3</v>
+        <v>4529657.7</v>
       </c>
     </row>
     <row r="15" spans="2:22" s="5" customFormat="1">
@@ -3413,41 +3413,41 @@
         <v>2060225.2000000002</v>
       </c>
       <c r="E15" s="62">
-        <v>1810530.1</v>
+        <v>1810534.1</v>
       </c>
       <c r="F15" s="62">
-        <v>2114178.6</v>
+        <v>2114179.4</v>
       </c>
       <c r="G15" s="62">
         <v>2097155</v>
       </c>
       <c r="H15" s="62">
-        <v>2112069</v>
+        <v>2112072.9000000004</v>
       </c>
       <c r="I15" s="62">
-        <v>2002493.7000000002</v>
+        <v>2002493</v>
       </c>
       <c r="J15" s="62">
         <v>2113362.9</v>
       </c>
       <c r="K15" s="62">
-        <v>2188977.4</v>
+        <v>2188977.4000000004</v>
       </c>
       <c r="L15" s="62">
-        <v>2107771.3000000003</v>
+        <v>2107700.7000000002</v>
       </c>
       <c r="M15" s="62">
-        <v>2254641.2999999998</v>
+        <v>2254514.2000000002</v>
       </c>
       <c r="N15" s="62">
-        <v>2210444.5</v>
+        <v>2210547</v>
       </c>
       <c r="O15" s="62">
-        <v>2252036.4</v>
+        <v>2251940</v>
       </c>
       <c r="P15" s="59"/>
       <c r="Q15" s="59">
-        <v>25323885.400000002</v>
+        <v>25323701.800000001</v>
       </c>
     </row>
     <row r="16" spans="2:22" s="5" customFormat="1">
@@ -3472,7 +3472,7 @@
         <v>30</v>
       </c>
       <c r="D17" s="62">
-        <v>342560.8</v>
+        <v>342561.8</v>
       </c>
       <c r="E17" s="62">
         <v>294295.09999999998</v>
@@ -3493,23 +3493,23 @@
         <v>396141.1</v>
       </c>
       <c r="K17" s="62">
-        <v>394658.6</v>
+        <v>394659.1</v>
       </c>
       <c r="L17" s="62">
-        <v>341113.7</v>
+        <v>341135.8</v>
       </c>
       <c r="M17" s="62">
         <v>381841.6</v>
       </c>
       <c r="N17" s="62">
-        <v>349824.5</v>
+        <v>349885.3</v>
       </c>
       <c r="O17" s="62">
-        <v>339159.8</v>
+        <v>339130.9</v>
       </c>
       <c r="P17" s="59"/>
       <c r="Q17" s="59">
-        <v>4223149</v>
+        <v>4223204.5</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -3600,17 +3600,17 @@
         <v>7939198.4000000004</v>
       </c>
       <c r="M21" s="62">
-        <v>8609807.9000000004</v>
+        <v>8609803.8000000007</v>
       </c>
       <c r="N21" s="62">
         <v>8384958.4000000004</v>
       </c>
       <c r="O21" s="62">
-        <v>8452996.8000000007</v>
+        <v>8453004.9000000004</v>
       </c>
       <c r="P21" s="59"/>
       <c r="Q21" s="59">
-        <v>97517622.900000006</v>
+        <v>97517626.900000006</v>
       </c>
     </row>
     <row r="22" spans="2:17" s="56" customFormat="1">
@@ -3619,13 +3619,13 @@
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="62">
-        <v>8709268</v>
+        <v>8725962</v>
       </c>
       <c r="E22" s="62">
-        <v>7241715</v>
+        <v>7241714</v>
       </c>
       <c r="F22" s="62">
-        <v>7936248.5999999996</v>
+        <v>7955577.5999999996</v>
       </c>
       <c r="G22" s="62">
         <v>5832680.7000000002</v>
@@ -3634,7 +3634,7 @@
         <v>6648687.2999999998</v>
       </c>
       <c r="I22" s="62">
-        <v>7903194.4000000004</v>
+        <v>7912216.4000000004</v>
       </c>
       <c r="J22" s="62">
         <v>8248279.0999999996</v>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="P22" s="59"/>
       <c r="Q22" s="59">
-        <v>92315085.699999988</v>
+        <v>92360129.699999988</v>
       </c>
     </row>
     <row r="23" spans="2:17">
@@ -3665,13 +3665,13 @@
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="62">
-        <v>-7453735.2000000002</v>
+        <v>-7470429.2000000002</v>
       </c>
       <c r="E23" s="62">
         <v>-6539236.2999999998</v>
       </c>
       <c r="F23" s="62">
-        <v>-6643567.5999999996</v>
+        <v>-6662896.5999999996</v>
       </c>
       <c r="G23" s="62">
         <v>-4528837.2</v>
@@ -3680,7 +3680,7 @@
         <v>-6025951.0999999996</v>
       </c>
       <c r="I23" s="62">
-        <v>-6518806.7999999998</v>
+        <v>-6527828.7999999998</v>
       </c>
       <c r="J23" s="62">
         <v>-7042458.2999999998</v>
@@ -3702,7 +3702,7 @@
       </c>
       <c r="P23" s="59"/>
       <c r="Q23" s="59">
-        <v>-78369633.199999988</v>
+        <v>-78414678.199999988</v>
       </c>
     </row>
     <row r="24" spans="2:17">
@@ -3714,7 +3714,7 @@
         <v>9454080.4000000022</v>
       </c>
       <c r="E24" s="62">
-        <v>8062193.2000000002</v>
+        <v>8062192.2000000002</v>
       </c>
       <c r="F24" s="62">
         <v>9564976.5999999996</v>
@@ -3738,17 +3738,17 @@
         <v>9218881.4000000004</v>
       </c>
       <c r="M24" s="62">
-        <v>9798073</v>
+        <v>9798068.8999999985</v>
       </c>
       <c r="N24" s="62">
         <v>9597712.1000000015</v>
       </c>
       <c r="O24" s="62">
-        <v>9321129.8000000007</v>
+        <v>9321137.8999999985</v>
       </c>
       <c r="P24" s="59"/>
       <c r="Q24" s="59">
-        <v>111463075.40000001</v>
+        <v>111463078.40000001</v>
       </c>
     </row>
     <row r="25" spans="2:17">
@@ -3759,10 +3759,10 @@
         <v>6557372</v>
       </c>
       <c r="E25" s="61">
-        <v>5732252</v>
+        <v>5732254</v>
       </c>
       <c r="F25" s="61">
-        <v>5849139.2999999998</v>
+        <v>5849245.2999999998</v>
       </c>
       <c r="G25" s="61">
         <v>3961511.9</v>
@@ -3771,13 +3771,13 @@
         <v>5212273.0999999996</v>
       </c>
       <c r="I25" s="61">
-        <v>5683705.5999999996</v>
+        <v>5683705.4000000004</v>
       </c>
       <c r="J25" s="61">
         <v>6171403</v>
       </c>
       <c r="K25" s="61">
-        <v>5411753</v>
+        <v>5401675.0999999996</v>
       </c>
       <c r="L25" s="61">
         <v>5208956.2</v>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="P25" s="59"/>
       <c r="Q25" s="60">
-        <v>68517812.5</v>
+        <v>68507842.399999991</v>
       </c>
     </row>
     <row r="26" spans="2:17">
@@ -3804,10 +3804,10 @@
         <v>16011452.400000002</v>
       </c>
       <c r="E26" s="62">
-        <v>13794445.199999999</v>
+        <v>13794446.199999999</v>
       </c>
       <c r="F26" s="62">
-        <v>15414115.899999999</v>
+        <v>15414221.899999999</v>
       </c>
       <c r="G26" s="62">
         <v>13334913.700000001</v>
@@ -3816,29 +3816,29 @@
         <v>14015231.699999999</v>
       </c>
       <c r="I26" s="62">
-        <v>14789400.299999999</v>
+        <v>14789400.1</v>
       </c>
       <c r="J26" s="62">
         <v>15540330.399999999</v>
       </c>
       <c r="K26" s="62">
-        <v>15206799.4</v>
+        <v>15196721.5</v>
       </c>
       <c r="L26" s="62">
         <v>14427837.600000001</v>
       </c>
       <c r="M26" s="62">
-        <v>16280541.300000001</v>
+        <v>16280537.199999999</v>
       </c>
       <c r="N26" s="62">
         <v>15783502.600000001</v>
       </c>
       <c r="O26" s="62">
-        <v>15382317.4</v>
+        <v>15382325.499999998</v>
       </c>
       <c r="P26" s="59"/>
       <c r="Q26" s="59">
-        <v>179980887.90000001</v>
+        <v>179970920.80000001</v>
       </c>
     </row>
     <row r="27" spans="2:17">
@@ -3864,44 +3864,44 @@
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="62">
-        <v>18414238.400000002</v>
+        <v>18414239.400000002</v>
       </c>
       <c r="E28" s="62">
-        <v>15899270.399999999</v>
+        <v>15899275.399999999</v>
       </c>
       <c r="F28" s="62">
-        <v>17863522.399999999</v>
+        <v>17863629.199999996</v>
       </c>
       <c r="G28" s="62">
         <v>15775992.800000001</v>
       </c>
       <c r="H28" s="62">
-        <v>16481110.199999999</v>
+        <v>16481114.1</v>
       </c>
       <c r="I28" s="62">
-        <v>17142486.300000001</v>
+        <v>17142485.400000002</v>
       </c>
       <c r="J28" s="62">
         <v>18049834.399999999</v>
       </c>
       <c r="K28" s="62">
-        <v>17790435.400000002</v>
+        <v>17780358</v>
       </c>
       <c r="L28" s="62">
-        <v>16876722.600000001</v>
+        <v>16876674.100000001</v>
       </c>
       <c r="M28" s="62">
-        <v>18917024.200000003</v>
+        <v>18916893</v>
       </c>
       <c r="N28" s="62">
-        <v>18343771.600000001</v>
+        <v>18343934.900000002</v>
       </c>
       <c r="O28" s="62">
-        <v>17973513.600000001</v>
+        <v>17973396.399999999</v>
       </c>
       <c r="P28" s="59"/>
       <c r="Q28" s="62">
-        <v>209527922.30000001</v>
+        <v>209517827.10000002</v>
       </c>
     </row>
     <row r="29" spans="2:17">
@@ -3951,13 +3951,13 @@
         <v>886083.9</v>
       </c>
       <c r="F31" s="62">
-        <v>1079290</v>
+        <v>1079289.2</v>
       </c>
       <c r="G31" s="62">
-        <v>1057312.6000000001</v>
+        <v>1057299.6000000001</v>
       </c>
       <c r="H31" s="62">
-        <v>1055981.7</v>
+        <v>1055994.7</v>
       </c>
       <c r="I31" s="62">
         <v>961469.5</v>
@@ -3969,20 +3969,20 @@
         <v>1027034.1</v>
       </c>
       <c r="L31" s="62">
-        <v>1001702.2</v>
+        <v>1001640.8</v>
       </c>
       <c r="M31" s="62">
-        <v>1044781.5</v>
+        <v>1044635.7</v>
       </c>
       <c r="N31" s="62">
-        <v>1036681.4</v>
+        <v>1036505.8</v>
       </c>
       <c r="O31" s="62">
-        <v>1008972.5</v>
+        <v>1007882.1</v>
       </c>
       <c r="P31" s="59"/>
       <c r="Q31" s="59">
-        <v>12136072.199999999</v>
+        <v>12134598.199999999</v>
       </c>
     </row>
     <row r="32" spans="2:17">
@@ -4086,11 +4086,11 @@
         <v>9423.7000000000007</v>
       </c>
       <c r="O34" s="62">
-        <v>10109.200000000001</v>
+        <v>10194.200000000001</v>
       </c>
       <c r="P34" s="59"/>
       <c r="Q34" s="59">
-        <v>116681.3</v>
+        <v>116766.3</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4132,11 +4132,11 @@
         <v>11165</v>
       </c>
       <c r="O35" s="62">
-        <v>14238.3</v>
+        <v>14174</v>
       </c>
       <c r="P35" s="59"/>
       <c r="Q35" s="59">
-        <v>176984.49999999997</v>
+        <v>176920.19999999998</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4169,20 +4169,20 @@
         <v>340254</v>
       </c>
       <c r="L36" s="62">
-        <v>385830.2</v>
+        <v>385363.3</v>
       </c>
       <c r="M36" s="62">
-        <v>429287</v>
+        <v>429374</v>
       </c>
       <c r="N36" s="62">
-        <v>370870.6</v>
+        <v>370653</v>
       </c>
       <c r="O36" s="62">
-        <v>513032.2</v>
+        <v>513370.6</v>
       </c>
       <c r="P36" s="59"/>
       <c r="Q36" s="59">
-        <v>3415237.6</v>
+        <v>3414978.5</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -4459,7 +4459,7 @@
         <v>714003.8</v>
       </c>
       <c r="M44" s="110">
-        <v>762031.7</v>
+        <v>762031.3</v>
       </c>
       <c r="N44" s="110">
         <v>753158.4</v>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="P44" s="111"/>
       <c r="Q44" s="111">
-        <v>8912855</v>
+        <v>8912854.5999999996</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -4551,7 +4551,7 @@
         <v>2127279</v>
       </c>
       <c r="M46" s="110">
-        <v>2331012.5</v>
+        <v>2331012.1</v>
       </c>
       <c r="N46" s="110">
         <v>2418483.2000000002</v>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="P46" s="111"/>
       <c r="Q46" s="111">
-        <v>28632360.600000001</v>
+        <v>28632360.200000003</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -4594,13 +4594,13 @@
         <v>3785681.1</v>
       </c>
       <c r="F48" s="110">
-        <v>4352738.4000000004</v>
+        <v>4352737.5999999996</v>
       </c>
       <c r="G48" s="110">
-        <v>4308056.3000000007</v>
+        <v>4308043.3000000007</v>
       </c>
       <c r="H48" s="110">
-        <v>4223183</v>
+        <v>4223196</v>
       </c>
       <c r="I48" s="110">
         <v>3899068.9000000004</v>
@@ -4612,20 +4612,20 @@
         <v>4180616.8</v>
       </c>
       <c r="L48" s="110">
-        <v>4027295.6</v>
+        <v>4026767.3000000003</v>
       </c>
       <c r="M48" s="110">
-        <v>4334555.0999999996</v>
+        <v>4334495.9000000004</v>
       </c>
       <c r="N48" s="110">
-        <v>4341256.2</v>
+        <v>4340863</v>
       </c>
       <c r="O48" s="110">
-        <v>4693992.0999999996</v>
+        <v>4693260.8</v>
       </c>
       <c r="P48" s="111"/>
       <c r="Q48" s="111">
-        <v>50520203.20000001</v>
+        <v>50518490.399999999</v>
       </c>
     </row>
     <row r="49" spans="2:17">
@@ -4653,7 +4653,7 @@
         <v>211512.8</v>
       </c>
       <c r="E50" s="110">
-        <v>187171.1</v>
+        <v>187170.1</v>
       </c>
       <c r="F50" s="110">
         <v>200592.4</v>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="P50" s="111"/>
       <c r="Q50" s="111">
-        <v>2445470.6</v>
+        <v>2445469.6</v>
       </c>
     </row>
     <row r="51" spans="2:17" s="56" customFormat="1">
@@ -4701,38 +4701,38 @@
         <v>80566</v>
       </c>
       <c r="F51" s="110">
-        <v>84041.8</v>
+        <v>84139.8</v>
       </c>
       <c r="G51" s="110">
-        <v>88223.1</v>
+        <v>88238.1</v>
       </c>
       <c r="H51" s="110">
-        <v>84458.7</v>
+        <v>84442.7</v>
       </c>
       <c r="I51" s="110">
-        <v>93697.600000000006</v>
+        <v>93765.6</v>
       </c>
       <c r="J51" s="110">
-        <v>87296.2</v>
+        <v>87300.2</v>
       </c>
       <c r="K51" s="110">
-        <v>91106.8</v>
+        <v>91099.8</v>
       </c>
       <c r="L51" s="110">
-        <v>76453.5</v>
+        <v>76713.5</v>
       </c>
       <c r="M51" s="110">
-        <v>97929.9</v>
+        <v>97920.9</v>
       </c>
       <c r="N51" s="110">
-        <v>97040.3</v>
+        <v>97031.3</v>
       </c>
       <c r="O51" s="110">
-        <v>94452.1</v>
+        <v>94521.1</v>
       </c>
       <c r="P51" s="111"/>
       <c r="Q51" s="111">
-        <v>1062857.1000000001</v>
+        <v>1063330.1000000001</v>
       </c>
     </row>
     <row r="52" spans="2:17">
@@ -4746,13 +4746,13 @@
         <v>262714.7</v>
       </c>
       <c r="F52" s="110">
-        <v>313409.2</v>
+        <v>313409</v>
       </c>
       <c r="G52" s="110">
-        <v>304442.2</v>
+        <v>304439.59999999998</v>
       </c>
       <c r="H52" s="110">
-        <v>303524.8</v>
+        <v>303527.5</v>
       </c>
       <c r="I52" s="110">
         <v>280454.5</v>
@@ -4764,20 +4764,20 @@
         <v>292277.90000000002</v>
       </c>
       <c r="L52" s="110">
-        <v>284487.59999999998</v>
+        <v>284474.90000000002</v>
       </c>
       <c r="M52" s="110">
-        <v>303618.40000000002</v>
+        <v>303588.2</v>
       </c>
       <c r="N52" s="110">
-        <v>300060.40000000002</v>
+        <v>300025.2</v>
       </c>
       <c r="O52" s="110">
-        <v>303127.7</v>
+        <v>302898.59999999998</v>
       </c>
       <c r="P52" s="110"/>
       <c r="Q52" s="110">
-        <v>3527580.4</v>
+        <v>3527273.1000000006</v>
       </c>
     </row>
     <row r="53" spans="2:17" s="4" customFormat="1" ht="14.25" customHeight="1">
@@ -4804,44 +4804,44 @@
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="116">
-        <v>11471218.9</v>
+        <v>11471104.800000001</v>
       </c>
       <c r="E54" s="116">
-        <v>10909453.6</v>
+        <v>10909343.5</v>
       </c>
       <c r="F54" s="116">
-        <v>11671234.300000001</v>
+        <v>11671129.9</v>
       </c>
       <c r="G54" s="116">
-        <v>11856739.300000001</v>
+        <v>11856607.9</v>
       </c>
       <c r="H54" s="116">
-        <v>11772897.300000001</v>
+        <v>11772795</v>
       </c>
       <c r="I54" s="116">
-        <v>11705237.699999999</v>
+        <v>11705120.800000001</v>
       </c>
       <c r="J54" s="116">
-        <v>11964291.300000001</v>
+        <v>11964726.1</v>
       </c>
       <c r="K54" s="116">
-        <v>11917285.1</v>
+        <v>11917774.800000001</v>
       </c>
       <c r="L54" s="116">
-        <v>12182564.199999999</v>
+        <v>12183074.300000001</v>
       </c>
       <c r="M54" s="116">
-        <v>12816524</v>
+        <v>12816921</v>
       </c>
       <c r="N54" s="116">
-        <v>12683422.800000001</v>
+        <v>12684001.5</v>
       </c>
       <c r="O54" s="116">
-        <v>11759965.199999999</v>
+        <v>11759948.5</v>
       </c>
       <c r="P54" s="116"/>
       <c r="Q54" s="117">
-        <v>11759965.199999999</v>
+        <v>11759948.5</v>
       </c>
     </row>
     <row r="55" spans="2:17">
@@ -4855,10 +4855,10 @@
         <v>12143.3</v>
       </c>
       <c r="F55" s="110">
-        <v>-79796</v>
+        <v>-79800.100000000006</v>
       </c>
       <c r="G55" s="110">
-        <v>7437.1</v>
+        <v>7438.1</v>
       </c>
       <c r="H55" s="110">
         <v>-39808.1</v>
@@ -4867,26 +4867,26 @@
         <v>55993.4</v>
       </c>
       <c r="J55" s="110">
-        <v>-125441.8</v>
+        <v>-125441.2</v>
       </c>
       <c r="K55" s="110">
-        <v>18728.8</v>
+        <v>6717.2</v>
       </c>
       <c r="L55" s="110">
-        <v>-309.8</v>
+        <v>-250.1</v>
       </c>
       <c r="M55" s="110">
         <v>-25301.7</v>
       </c>
       <c r="N55" s="110">
-        <v>-6444.6</v>
+        <v>-6385.1</v>
       </c>
       <c r="O55" s="110">
-        <v>25833.7</v>
+        <v>25321.3</v>
       </c>
       <c r="P55" s="111"/>
       <c r="Q55" s="111">
-        <v>-191552.4</v>
+        <v>-203959.7</v>
       </c>
     </row>
     <row r="56" spans="2:17" ht="15" thickBot="1">
@@ -4915,41 +4915,41 @@
         <v>21816054.700000003</v>
       </c>
       <c r="E57" s="110">
-        <v>19728408.300000001</v>
+        <v>19728410.300000001</v>
       </c>
       <c r="F57" s="110">
-        <v>20776631.799999997</v>
+        <v>20776630.199999996</v>
       </c>
       <c r="G57" s="110">
-        <v>19341648.900000002</v>
+        <v>19341651.500000004</v>
       </c>
       <c r="H57" s="110">
-        <v>20201421.699999999</v>
+        <v>20201422.799999997</v>
       </c>
       <c r="I57" s="110">
-        <v>20570035.900000002</v>
+        <v>20569981.600000001</v>
       </c>
       <c r="J57" s="110">
-        <v>21142382.899999999</v>
+        <v>21141827.800000004</v>
       </c>
       <c r="K57" s="110">
-        <v>21437967.300000008</v>
+        <v>21415830.400000002</v>
       </c>
       <c r="L57" s="110">
-        <v>20077002.199999999</v>
+        <v>20076217.400000002</v>
       </c>
       <c r="M57" s="110">
-        <v>21966615.000000004</v>
+        <v>21966576.899999999</v>
       </c>
       <c r="N57" s="110">
-        <v>22194273.299999997</v>
+        <v>22193965.399999999</v>
       </c>
       <c r="O57" s="110">
-        <v>23000070.900000002</v>
+        <v>22999465.800000001</v>
       </c>
       <c r="P57" s="111"/>
       <c r="Q57" s="111">
-        <v>252252512.90000001</v>
+        <v>252228034.80000004</v>
       </c>
     </row>
     <row r="58" spans="2:17">
@@ -4971,7 +4971,7 @@
     </row>
     <row r="59" spans="2:17" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="B59" s="73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C59" s="66"/>
       <c r="D59" s="67"/>
@@ -5102,7 +5102,7 @@
         <v>25798.699999999997</v>
       </c>
       <c r="L63" s="62">
-        <v>34058</v>
+        <v>34172.199999999997</v>
       </c>
       <c r="M63" s="62">
         <v>36392.400000000001</v>
@@ -5111,11 +5111,11 @@
         <v>30277.7</v>
       </c>
       <c r="O63" s="62">
-        <v>42722.5</v>
+        <v>42846</v>
       </c>
       <c r="P63" s="11"/>
       <c r="Q63" s="59">
-        <v>258036.9</v>
+        <v>258274.6</v>
       </c>
     </row>
     <row r="64" spans="2:17">
@@ -5147,20 +5147,20 @@
         <v>2366421.4</v>
       </c>
       <c r="L64" s="62">
-        <v>1790701.7</v>
+        <v>1790587.5</v>
       </c>
       <c r="M64" s="62">
-        <v>1931901.9</v>
+        <v>1931870.3</v>
       </c>
       <c r="N64" s="62">
-        <v>2280849.4</v>
+        <v>2280845.2000000002</v>
       </c>
       <c r="O64" s="62">
         <v>2531308.2999999998</v>
       </c>
       <c r="P64" s="59"/>
       <c r="Q64" s="59">
-        <v>25425257.099999994</v>
+        <v>25425107.099999998</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -5195,17 +5195,17 @@
         <v>16741.599999999999</v>
       </c>
       <c r="M65" s="62">
-        <v>15472.7</v>
+        <v>15504.3</v>
       </c>
       <c r="N65" s="62">
-        <v>12567.4</v>
+        <v>12572.6</v>
       </c>
       <c r="O65" s="62">
-        <v>14326.8</v>
+        <v>14256.9</v>
       </c>
       <c r="P65" s="59"/>
       <c r="Q65" s="59">
-        <v>165238.30000000002</v>
+        <v>165205.20000000001</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -5216,7 +5216,7 @@
         <v>20950.5</v>
       </c>
       <c r="E66" s="62">
-        <v>15777.8</v>
+        <v>15779.8</v>
       </c>
       <c r="F66" s="62">
         <v>12018.9</v>
@@ -5250,7 +5250,7 @@
       </c>
       <c r="P66" s="59"/>
       <c r="Q66" s="59">
-        <v>134419.9</v>
+        <v>134421.9</v>
       </c>
     </row>
     <row r="67" spans="1:17" s="1" customFormat="1">
@@ -5317,32 +5317,32 @@
         <v>1643.8</v>
       </c>
       <c r="H68" s="62">
-        <v>1337.8</v>
+        <v>1330.2</v>
       </c>
       <c r="I68" s="62">
-        <v>256.60000000000002</v>
+        <v>264.2</v>
       </c>
       <c r="J68" s="62">
-        <v>111.5</v>
+        <v>52.7</v>
       </c>
       <c r="K68" s="62">
-        <v>3593.4</v>
+        <v>3688.6</v>
       </c>
       <c r="L68" s="62">
-        <v>-1938.2</v>
+        <v>-1003.2</v>
       </c>
       <c r="M68" s="62">
-        <v>3244.6</v>
+        <v>3267.2</v>
       </c>
       <c r="N68" s="62">
-        <v>-3162.4</v>
+        <v>-2391</v>
       </c>
       <c r="O68" s="62">
-        <v>2148.8000000000002</v>
+        <v>2124.6</v>
       </c>
       <c r="P68" s="59"/>
       <c r="Q68" s="62">
-        <v>7698.9000000000005</v>
+        <v>9440.1</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -5369,26 +5369,26 @@
         <v>141356.5</v>
       </c>
       <c r="J69" s="62">
-        <v>166490.5</v>
+        <v>165911.4</v>
       </c>
       <c r="K69" s="62">
-        <v>250467.5</v>
+        <v>250467.7</v>
       </c>
       <c r="L69" s="62">
-        <v>303757.5</v>
+        <v>303674.5</v>
       </c>
       <c r="M69" s="62">
         <v>373381.9</v>
       </c>
       <c r="N69" s="62">
-        <v>254023.3</v>
+        <v>253889</v>
       </c>
       <c r="O69" s="62">
-        <v>254346.8</v>
+        <v>253365.2</v>
       </c>
       <c r="P69" s="59"/>
       <c r="Q69" s="59">
-        <v>2523419.6999999997</v>
+        <v>2521641.9</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -5400,7 +5400,7 @@
         <v>2475875</v>
       </c>
       <c r="E70" s="62">
-        <v>2250881.2000000002</v>
+        <v>2250883.2000000002</v>
       </c>
       <c r="F70" s="62">
         <v>2624631.9</v>
@@ -5409,32 +5409,32 @@
         <v>1894570.9</v>
       </c>
       <c r="H70" s="62">
-        <v>1663293</v>
+        <v>1663285.4</v>
       </c>
       <c r="I70" s="62">
-        <v>2373470.7999999998</v>
+        <v>2373478.3999999999</v>
       </c>
       <c r="J70" s="62">
-        <v>2579025.7999999998</v>
+        <v>2578387.9</v>
       </c>
       <c r="K70" s="62">
-        <v>2678402.9</v>
+        <v>2678498.3000000003</v>
       </c>
       <c r="L70" s="62">
-        <v>2168713.2999999998</v>
+        <v>2169565.2999999998</v>
       </c>
       <c r="M70" s="62">
-        <v>2371162.5999999996</v>
+        <v>2371185.1999999997</v>
       </c>
       <c r="N70" s="62">
-        <v>2588972.4</v>
+        <v>2589610.5000000005</v>
       </c>
       <c r="O70" s="62">
-        <v>2847151.6999999993</v>
+        <v>2846199.5</v>
       </c>
       <c r="P70" s="59"/>
       <c r="Q70" s="59">
-        <v>28516151.499999996</v>
+        <v>28516171.5</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -5476,7 +5476,7 @@
         <v>17761697</v>
       </c>
       <c r="I72" s="110">
-        <v>17524841.600000001</v>
+        <v>17524843.300000001</v>
       </c>
       <c r="J72" s="110">
         <v>18039137.100000001</v>
@@ -5488,7 +5488,7 @@
         <v>17513447.899999999</v>
       </c>
       <c r="M72" s="110">
-        <v>19238115.600000001</v>
+        <v>19238058.600000001</v>
       </c>
       <c r="N72" s="110">
         <v>19214214.699999999</v>
@@ -5498,7 +5498,7 @@
       </c>
       <c r="P72" s="111"/>
       <c r="Q72" s="111">
-        <v>217159634.49999997</v>
+        <v>217159579.19999999</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -5522,7 +5522,7 @@
         <v>572957.96774193551</v>
       </c>
       <c r="I73" s="110">
-        <v>584161.38666666672</v>
+        <v>584161.44333333336</v>
       </c>
       <c r="J73" s="110">
         <v>581907.64838709682</v>
@@ -5534,7 +5534,7 @@
         <v>583781.59666666656</v>
       </c>
       <c r="M73" s="110">
-        <v>620584.37419354846</v>
+        <v>620582.535483871</v>
       </c>
       <c r="N73" s="110">
         <v>640473.82333333336</v>
@@ -5544,7 +5544,7 @@
       </c>
       <c r="P73" s="111"/>
       <c r="Q73" s="111">
-        <v>594957.14930491557</v>
+        <v>594957.00080133125</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -5577,38 +5577,38 @@
         <v>706390.69999999925</v>
       </c>
       <c r="F75" s="110">
-        <v>322772.69999999925</v>
+        <v>322771.09999999776</v>
       </c>
       <c r="G75" s="110">
-        <v>674055.10000000149</v>
+        <v>674057.70000000298</v>
       </c>
       <c r="H75" s="110">
-        <v>776431.69999999925</v>
+        <v>776440.39999999851</v>
       </c>
       <c r="I75" s="110">
-        <v>671723.5</v>
+        <v>671659.90000000224</v>
       </c>
       <c r="J75" s="110">
-        <v>524219.99999999627</v>
+        <v>524302.80000000447</v>
       </c>
       <c r="K75" s="110">
-        <v>361525.8000000082</v>
+        <v>339293.5</v>
       </c>
       <c r="L75" s="110">
-        <v>394841</v>
+        <v>393204.20000000298</v>
       </c>
       <c r="M75" s="110">
-        <v>357336.80000000075</v>
+        <v>357333.09999999776</v>
       </c>
       <c r="N75" s="110">
-        <v>391086.19999999925</v>
+        <v>390140.19999999925</v>
       </c>
       <c r="O75" s="110">
-        <v>730466.50000000373</v>
+        <v>730813.60000000149</v>
       </c>
       <c r="P75" s="111"/>
       <c r="Q75" s="111">
-        <v>6576726.9000000097</v>
+        <v>6552284.1000000089</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -5617,44 +5617,44 @@
       </c>
       <c r="C76" s="25"/>
       <c r="D76" s="110">
-        <v>3.558416099360424E-3</v>
+        <v>3.5584160993605988E-3</v>
       </c>
       <c r="E76" s="110">
-        <v>9.6728199323782987E-3</v>
+        <v>9.6728189252027509E-3</v>
       </c>
       <c r="F76" s="110">
-        <v>-1.283213276691595E-2</v>
+        <v>-1.2832213012233482E-2</v>
       </c>
       <c r="G76" s="110">
-        <v>-7.8865019644779434E-4</v>
+        <v>-7.8851069789942485E-4</v>
       </c>
       <c r="H76" s="110">
-        <v>1.2596519820047199E-2</v>
+        <v>1.2596961350682152E-2</v>
       </c>
       <c r="I76" s="110">
-        <v>8.0579198140627965E-3</v>
+        <v>8.0547711215861982E-3</v>
       </c>
       <c r="J76" s="110">
-        <v>8.8375152411416628E-3</v>
+        <v>8.8417315684855297E-3</v>
       </c>
       <c r="K76" s="110">
-        <v>-1.833593716199093E-3</v>
+        <v>-2.8934136890806719E-3</v>
       </c>
       <c r="L76" s="110">
-        <v>3.0067443290801182E-3</v>
+        <v>2.92394901362874E-3</v>
       </c>
       <c r="M76" s="110">
-        <v>-3.9394207643773651E-3</v>
+        <v>-3.9395996350402246E-3</v>
       </c>
       <c r="N76" s="110">
-        <v>-4.852201280542737E-3</v>
+        <v>-4.8958694346818927E-3</v>
       </c>
       <c r="O76" s="110">
-        <v>6.0687920087331218E-3</v>
+        <v>6.0844480065700467E-3</v>
       </c>
       <c r="P76" s="111"/>
       <c r="Q76" s="111">
-        <v>2.2233523890904465E-3</v>
+        <v>2.6383489616580321E-2</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="15" thickBot="1">
@@ -5683,41 +5683,41 @@
         <v>21816054.700000003</v>
       </c>
       <c r="E78" s="110">
-        <v>19728408.300000001</v>
+        <v>19728410.300000001</v>
       </c>
       <c r="F78" s="110">
-        <v>20776631.799999997</v>
+        <v>20776630.199999996</v>
       </c>
       <c r="G78" s="110">
-        <v>19341648.900000002</v>
+        <v>19341651.500000004</v>
       </c>
       <c r="H78" s="110">
-        <v>20201421.699999999</v>
+        <v>20201422.799999997</v>
       </c>
       <c r="I78" s="110">
-        <v>20570035.900000002</v>
+        <v>20569981.600000001</v>
       </c>
       <c r="J78" s="110">
-        <v>21142382.899999999</v>
+        <v>21141827.800000004</v>
       </c>
       <c r="K78" s="110">
-        <v>21437967.300000008</v>
+        <v>21415830.400000002</v>
       </c>
       <c r="L78" s="110">
-        <v>20077002.199999999</v>
+        <v>20076217.400000002</v>
       </c>
       <c r="M78" s="110">
-        <v>21966615.000000004</v>
+        <v>21966576.899999999</v>
       </c>
       <c r="N78" s="110">
-        <v>22194273.299999997</v>
+        <v>22193965.399999999</v>
       </c>
       <c r="O78" s="110">
-        <v>23000070.900000002</v>
+        <v>22999465.800000001</v>
       </c>
       <c r="P78" s="111"/>
       <c r="Q78" s="111">
-        <v>252252512.90000001</v>
+        <v>252228034.80000004</v>
       </c>
     </row>
     <row r="79" spans="1:17">
